--- a/biology/Zoologie/Andrallus_spinidens/Andrallus_spinidens.xlsx
+++ b/biology/Zoologie/Andrallus_spinidens/Andrallus_spinidens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrallus spinidens, unique représentant du genre Andrallus, est une espèce d'insectes de la famille des Pentatomidae (sous-ordre des hétéroptères, les punaises).
 </t>
@@ -511,13 +523,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Andrallus est créé en 1905 par l'entomologiste finlandais Ernst Evald Bergroth[1].
-Andrallus a pour synonyme[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Andrallus est créé en 1905 par l'entomologiste finlandais Ernst Evald Bergroth.
+Andrallus a pour synonyme :
 Audinetia Ellenrieder, 1862
-L'espèce Andrallus spinidens a été initialement décrite en 1787 par Johan Christian Fabricius sous le protonyme  Cimex spinidens Fabricius, 1787[1].
-Andrallus spinidens a pour synonymes[1],[2] :
+L'espèce Andrallus spinidens a été initialement décrite en 1787 par Johan Christian Fabricius sous le protonyme  Cimex spinidens Fabricius, 1787.
+Andrallus spinidens a pour synonymes, :
 Acanthidium cinctum Montrouzier, 1858
 Andrallus aculeata (Ellenrieder, 1862)
 Apateticus ludovicianus Stoner, 1917
@@ -553,7 +567,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Genre Andrallus :
 (la) « Rhynchota Aethiopica. IV », Annales de la Société Entomologique de Belgique, vol. 49,‎ 1905, p. 368–378 (lire en ligne, consulté le 4 octobre 2023)
